--- a/data/trans_camb/P16B18-Nacimiento-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Nacimiento-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
